--- a/alphabet-all images/AlphabetRecognizer-master/AlphabetRecognizer-master,src,res,trainingData,source/50% small size/PSNR 50% small size.xlsx
+++ b/alphabet-all images/AlphabetRecognizer-master/AlphabetRecognizer-master,src,res,trainingData,source/50% small size/PSNR 50% small size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\hocadangelen\edgedetectionproposedmethod\AlphabetRecognizer-master\AlphabetRecognizer-master,src,res,trainingData,source\50% small size\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\Knowledge-Based-Edge-Detection\alphabet-all images\AlphabetRecognizer-master\AlphabetRecognizer-master,src,res,trainingData,source\50% small size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66EE684-9679-489E-9802-6A219C951BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301F7E4-366D-4270-A6BD-E3DAB5EEDC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>ref image</t>
   </si>
@@ -39,13 +39,7 @@
     <t>Sobel</t>
   </si>
   <si>
-    <t>approxcanny</t>
-  </si>
-  <si>
     <t>Canny</t>
-  </si>
-  <si>
-    <t>Log</t>
   </si>
   <si>
     <t>ref image = Binary image</t>
@@ -762,11 +756,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$A$9</c:f>
+              <c:f>Sayfa1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>approxcanny</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -783,99 +777,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$B$9:$AE$9</c:f>
+              <c:f>Sayfa1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50090000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76149999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39539999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50070000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47660000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.40339999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51249999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65259999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56120000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4819</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.40160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.31430000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.53569999999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.59340000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.67469999999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.49299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.38669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.36059999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.58750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.50780000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.39960000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.7238</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.52729999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65859999999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.32369999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.49099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.53059999999999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,7 +798,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$A$10</c:f>
+              <c:f>Sayfa1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -912,7 +819,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$B$10:$AE$10</c:f>
+              <c:f>Sayfa1!$B$9:$AE$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1020,11 +927,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$A$11</c:f>
+              <c:f>Sayfa1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Log</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1043,99 +950,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$B$11:$AE$11</c:f>
+              <c:f>Sayfa1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.0500000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.92E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.85E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.12909999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15290000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9099999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.72E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1265</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15509999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.4199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.28199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1071</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.9400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.18E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,13 +1717,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2195,25 +2015,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="31" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2224,7 +2044,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2235,9 +2055,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -2330,7 +2150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -2423,9 +2243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7">
         <v>0.96740000000000004</v>
@@ -2518,7 +2338,7 @@
         <v>0.95679999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2433,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2708,7 +2528,7 @@
         <v>0.38279999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2803,292 +2623,128 @@
         <v>0.51480000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.39539999999999997</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.50070000000000003</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.47660000000000002</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.40339999999999998</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.65259999999999996</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.56120000000000003</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0.4819</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0.40160000000000001</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0.31430000000000002</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0.53569999999999995</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0.67469999999999997</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0.38669999999999999</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0.36059999999999998</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0.50780000000000003</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0.7238</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0.52729999999999999</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>0.65859999999999996</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>0.32369999999999999</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>0.53059999999999996</v>
+      <c r="B9" s="7">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.4894</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.68259999999999998</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.7147</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.4486</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0.78169999999999995</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0.6744</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0.72989999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.74560000000000004</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.82269999999999999</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.4894</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.56850000000000001</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.74660000000000004</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.57150000000000001</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.68259999999999998</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.73470000000000002</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.7147</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0.54859999999999998</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0.4486</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0.73070000000000002</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.77010000000000001</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0.61550000000000005</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0.45739999999999997</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0.58120000000000005</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0.79879999999999995</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0.78169999999999995</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0.88080000000000003</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0.48139999999999999</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>0.6744</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0.72989999999999999</v>
-      </c>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2.92E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.32590000000000002</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3.85E-2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.14069999999999999</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.1198</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.12909999999999999</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="M11" s="8">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="N11" s="8">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1.72E-2</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0.11940000000000001</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>2.35E-2</v>
-      </c>
-      <c r="R11" s="8">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0.1265</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0.15509999999999999</v>
-      </c>
-      <c r="U11" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V11" s="8">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="W11" s="8">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="X11" s="8">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0.1071</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>2.18E-2</v>
-      </c>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -3101,7 +2757,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -3114,7 +2770,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -3127,7 +2783,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -3140,7 +2796,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -3153,7 +2809,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -3166,7 +2822,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -3179,7 +2835,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -3192,7 +2848,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -3205,7 +2861,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -3218,7 +2874,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -3231,7 +2887,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -3244,7 +2900,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -3257,7 +2913,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -3270,7 +2926,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -3283,7 +2939,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -3296,7 +2952,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -3309,7 +2965,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -3322,32 +2978,6 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/alphabet-all images/AlphabetRecognizer-master/AlphabetRecognizer-master,src,res,trainingData,source/50% small size/PSNR 50% small size.xlsx
+++ b/alphabet-all images/AlphabetRecognizer-master/AlphabetRecognizer-master,src,res,trainingData,source/50% small size/PSNR 50% small size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\Knowledge-Based-Edge-Detection\alphabet-all images\AlphabetRecognizer-master\AlphabetRecognizer-master,src,res,trainingData,source\50% small size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301F7E4-366D-4270-A6BD-E3DAB5EEDC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33967642-05C5-4859-B6F7-8D5AAE123569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -178,16 +185,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
@@ -752,50 +759,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sayfa1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sayfa1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A847-4C78-AB59-D138067BC8C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sayfa1!$A$9</c:f>
@@ -919,50 +884,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A847-4C78-AB59-D138067BC8C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sayfa1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sayfa1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A847-4C78-AB59-D138067BC8C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2018,7 +1939,7 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,94 +2168,94 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.96740000000000004</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1.0188999999999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1.3318000000000001</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.63429999999999997</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.7601</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.90939999999999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>0.74570000000000003</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>1.0341</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>1.1451</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>1.0657000000000001</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>0.79049999999999998</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>0.57450000000000001</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>1.0858000000000001</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>0.98570000000000002</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>1.0222</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>1.2901</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>0.92879999999999996</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>0.69740000000000002</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>0.73419999999999996</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>1.0202</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>0.92769999999999997</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>0.74970000000000003</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <v>1.3010999999999999</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>0.97409999999999997</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="6">
         <v>1.2595000000000001</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="6">
         <v>0.6119</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>1.0166999999999999</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="6">
         <v>0.95679999999999998</v>
       </c>
     </row>
@@ -2342,99 +2263,99 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.46789999999999998</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.49859999999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.752</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0.31669999999999998</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.37640000000000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.48449999999999999</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.47299999999999998</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>0.38040000000000002</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>0.50700000000000001</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>0.68679999999999997</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>0.56569999999999998</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>0.4476</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>0.39939999999999998</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>0.3004</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>0.60660000000000003</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>0.5524</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>0.62450000000000006</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>0.66210000000000002</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>0.48470000000000002</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>0.42530000000000001</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>0.40200000000000002</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>0.59689999999999999</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>0.47899999999999998</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>0.37990000000000002</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="6">
         <v>0.71379999999999999</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>0.50070000000000003</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="6">
         <v>0.65280000000000005</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="6">
         <v>0.31080000000000002</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>0.46949999999999997</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="6">
         <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8">
@@ -2532,94 +2453,94 @@
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.45500000000000002</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.4839</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.74419999999999997</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.30409999999999998</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.36359999999999998</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.46820000000000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.4677</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0.3679</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.49719999999999998</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>0.64849999999999997</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>0.55449999999999999</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.43440000000000001</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>0.39069999999999999</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>0.28670000000000001</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>0.57809999999999995</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>0.51749999999999996</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>0.58460000000000001</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>0.65210000000000001</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>0.48159999999999997</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>0.38279999999999997</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>0.3659</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>0.55969999999999998</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>0.46039999999999998</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>0.36830000000000002</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <v>0.70799999999999996</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="6">
         <v>0.4824</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="6">
         <v>0.63390000000000002</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="6">
         <v>0.29659999999999997</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>0.4622</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE8" s="6">
         <v>0.51480000000000004</v>
       </c>
     </row>
@@ -2627,94 +2548,94 @@
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.74560000000000004</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.80200000000000005</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.82269999999999999</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.4894</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.56850000000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.74660000000000004</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.60199999999999998</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.57150000000000001</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>0.68259999999999998</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>0.73470000000000002</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>0.71660000000000001</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.7147</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>0.54859999999999998</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>0.4486</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>0.73070000000000002</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>0.74639999999999995</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <v>0.77010000000000001</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>0.89029999999999998</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>0.61550000000000005</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>0.49969999999999998</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>0.45739999999999997</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>0.77100000000000002</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <v>0.72219999999999995</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="6">
         <v>0.58120000000000005</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <v>0.79879999999999995</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="6">
         <v>0.78169999999999995</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="6">
         <v>0.88080000000000003</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="6">
         <v>0.48139999999999999</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="6">
         <v>0.6744</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AE9" s="6">
         <v>0.72989999999999999</v>
       </c>
     </row>
